--- a/Concept/Calculations.xlsx
+++ b/Concept/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\GitHub\Infos\Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B55F2-CF17-431C-A4AD-46D477A52DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63176B5B-0199-4B3F-ABE8-7FD599BE6603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8100" activeTab="2" xr2:uid="{7995C8CA-6DF9-4C1A-B712-1F52140F96EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3" xr2:uid="{7995C8CA-6DF9-4C1A-B712-1F52140F96EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Graph" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>measured Messages/s</t>
   </si>
@@ -174,12 +173,63 @@
   <si>
     <t>Lograte [ms]</t>
   </si>
+  <si>
+    <t>Just for testing, no meaning</t>
+  </si>
+  <si>
+    <t>number of packages:</t>
+  </si>
+  <si>
+    <t>ms from start to stop:</t>
+  </si>
+  <si>
+    <t>payload [bytes]:</t>
+  </si>
+  <si>
+    <t>sleep between sending and receiving[ms]:</t>
+  </si>
+  <si>
+    <t>constant overhead:</t>
+  </si>
+  <si>
+    <t>payload + overhead [bytes]</t>
+  </si>
+  <si>
+    <t>WITHOUT OVERHEAD</t>
+  </si>
+  <si>
+    <t>WITH OVERHEAD</t>
+  </si>
+  <si>
+    <t>5 bytes</t>
+  </si>
+  <si>
+    <t>payload / sleep</t>
+  </si>
+  <si>
+    <t>payload + overhead / sleep</t>
+  </si>
+  <si>
+    <t>calculated bit/s NO OH</t>
+  </si>
+  <si>
+    <t>calculated byte/s NO OH</t>
+  </si>
+  <si>
+    <t>calculated bit/s OH</t>
+  </si>
+  <si>
+    <t>calculated byte/s OH</t>
+  </si>
+  <si>
+    <t>CONCLUSION: You can directly see the overhead having an effect on the transmit datarate. But it is not the factor that pushes the datarate down with smaller payloads. So NOT bacause of the overhead but because of another unknown factor it is smarter to have full sized payloads (128 bytes) for the best data rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +285,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,30 +462,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
@@ -439,19 +494,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
@@ -460,11 +519,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Ausgabe" xfId="4" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="5" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Erklärender Text" xfId="6" builtinId="53"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 4" xfId="1" builtinId="19"/>
@@ -483,6 +551,868 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpeedTesting!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calculated bit/s NO OH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SpeedTesting!$P$5:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>22260.869565217392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22654.867256637168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22555.066079295153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22456.140350877191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18962.962962962964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19104.4776119403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19320.754716981133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19118.745332337567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13333.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12598.425196850394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12470.771628994544</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8888.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7920.7920792079212</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8154.9439347604484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F9D-4B59-A4AA-9B0E676A8FC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpeedTesting!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calculated bit/s OH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SpeedTesting!$S$5:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>23130.434782608696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23539.823008849558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23436.12334801762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23333.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20444.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20597.014925373136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20830.188679245286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20612.397311426437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16666.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15748.031496062993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15588.46453624318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13333.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11881.188118811882</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12232.415902140672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F9D-4B59-A4AA-9B0E676A8FC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1187451744"/>
+        <c:axId val="1120417600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1187451744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120417600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1120417600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187451744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpeedTesting!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calculated byte/s NO OH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SpeedTesting!$Q$5:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2782.608695652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2831.858407079646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2819.3832599118941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2807.0175438596489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2370.3703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2388.0597014925374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2415.0943396226417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2389.8431665421958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1666.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1562.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1574.8031496062993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1558.846453624318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>990.09900990099015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1019.3679918450561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2638-4132-9C6F-BD6602F56BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SpeedTesting!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calculated byte/s OH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SpeedTesting!$T$5:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2891.304347826087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2942.4778761061948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2929.5154185022025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2916.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2555.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2574.626865671642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2603.7735849056608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2576.5496639283047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2083.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1968.5039370078741</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1948.5580670303975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1666.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1485.1485148514853</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1529.051987767584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2638-4132-9C6F-BD6602F56BAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1115676864"/>
+        <c:axId val="1120415936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1115676864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120415936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1120415936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1115676864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1506,7 +2436,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3621,6 +4551,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4692,7 +5702,1116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>834838</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1462368</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110937</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B5ACB4-F1AE-4122-A126-85FB72A14D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>711572</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>16807</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE239F58-0161-4009-8DA8-BC2A180F84E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5069,26 +7188,27 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
@@ -5098,55 +7218,55 @@
       <c r="K3" s="12"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <f>DataEstimation!G5*DataSizes!E5</f>
         <v>60000</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="14">
         <f>B4/128</f>
         <v>468.75</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="16">
         <f>DataEstimation!G5*DataSizes!E6</f>
         <v>90000</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="10">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="G5" s="14">
         <f>B5/128</f>
         <v>703.125</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="G9" s="11" t="s">
         <v>37</v>
       </c>
@@ -5156,62 +7276,62 @@
       <c r="K9" s="12"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="14">
         <f>DataEstimation!G12*DataSizes!E5</f>
         <v>600</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="10">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="14">
         <f>B10/128</f>
         <v>4.6875</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="16">
         <f>DataEstimation!G12*DataSizes!E6</f>
         <v>900</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="10">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="G11" s="14">
         <f>B11/128</f>
         <v>7.03125</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="G4:L4"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5222,54 +7342,54 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -5292,7 +7412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5305,7 +7425,7 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f>D5+C5+B5</f>
         <v>6</v>
       </c>
@@ -5313,7 +7433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5326,7 +7446,7 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f>D6+C6+B6</f>
         <v>9</v>
       </c>
@@ -5349,256 +7469,256 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5CB9A-5ABF-4B84-BF61-4292992ABB36}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="11" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>200</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>22.66</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <f>A5*(1/(C5/1000))</f>
         <v>10000</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <f>60*G5</f>
         <v>600000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <f>10*H5</f>
         <v>6000000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <f>3*I5</f>
         <v>18000000</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <f>2*J5</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <f>(G5*B5)/1000000</f>
         <v>0.2266</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <f>(H5*B5)/1000000</f>
         <v>13.596</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <f>(I5*B5)/1000000</f>
         <v>135.96</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <f>(J5*B5)/1000000</f>
         <v>407.88</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <f>(K5*B5)/1000000</f>
         <v>815.76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>22.66</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>100</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <f>A12*(1/(C12/1000))</f>
         <v>100</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f>60*G12</f>
         <v>6000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f>10*H12</f>
         <v>60000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <f>3*I12</f>
         <v>180000</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <f>2*J12</f>
         <v>360000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="E13" s="7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <f>(G12*B12)/1000000</f>
         <v>2.2659999999999998E-3</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f>(H12*B12)/1000000</f>
         <v>0.13596</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <f>(I12*B12)/1000000</f>
         <v>1.3595999999999999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <f>(J12*B12)/1000000</f>
         <v>4.0788000000000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <f>(K12*B12)/1000000</f>
         <v>8.1576000000000004</v>
       </c>
@@ -5610,170 +7730,1025 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECEFC8F-B749-4B26-9926-020D5503C7C3}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="P3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="S3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="W3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J5" s="24">
+        <v>39</v>
+      </c>
+      <c r="K5" s="24">
+        <v>46</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="M5" s="24">
+        <v>128</v>
+      </c>
+      <c r="N5" s="24">
+        <f>M5+5</f>
+        <v>133</v>
+      </c>
+      <c r="P5">
+        <f>(1000/K5)*L5*M5*8</f>
+        <v>22260.869565217392</v>
+      </c>
+      <c r="Q5">
+        <f>P5/8</f>
+        <v>2782.608695652174</v>
+      </c>
+      <c r="S5">
+        <f>(1000/K5)*L5*N5*8</f>
+        <v>23130.434782608696</v>
+      </c>
+      <c r="T5">
+        <f>S5/8</f>
+        <v>2891.304347826087</v>
+      </c>
+      <c r="W5" s="2">
+        <f>M5/J5</f>
+        <v>3.2820512820512819</v>
+      </c>
+      <c r="X5" s="2">
+        <f>N5/J5</f>
+        <v>3.4102564102564101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="24">
+        <v>39</v>
+      </c>
+      <c r="K6" s="24">
+        <v>226</v>
+      </c>
+      <c r="L6" s="24">
+        <v>5</v>
+      </c>
+      <c r="M6" s="24">
+        <v>128</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" ref="N6:N20" si="0">M6+5</f>
+        <v>133</v>
+      </c>
+      <c r="P6">
+        <f>(1000/K6)*L6*M6*8</f>
+        <v>22654.867256637168</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q20" si="1">P6/8</f>
+        <v>2831.858407079646</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S20" si="2">(1000/K6)*L6*N6*8</f>
+        <v>23539.823008849558</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T20" si="3">S6/8</f>
+        <v>2942.4778761061948</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" ref="W6:W20" si="4">M6/J6</f>
+        <v>3.2820512820512819</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" ref="X6:X20" si="5">N6/J6</f>
+        <v>3.4102564102564101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J7" s="24">
+        <v>39</v>
+      </c>
+      <c r="K7" s="24">
+        <v>454</v>
+      </c>
+      <c r="L7" s="24">
+        <v>10</v>
+      </c>
+      <c r="M7" s="24">
+        <v>128</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="P7">
+        <f>(1000/K7)*L7*M7*8</f>
+        <v>22555.066079295153</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>2819.3832599118941</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>23436.12334801762</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>2929.5154185022025</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2820512820512819</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4102564102564101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="J8" s="24">
+        <v>39</v>
+      </c>
+      <c r="K8" s="24">
+        <v>4560</v>
+      </c>
+      <c r="L8" s="24">
+        <v>100</v>
+      </c>
+      <c r="M8" s="24">
+        <v>128</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="P8">
+        <f>(1000/K8)*L8*M8*8</f>
+        <v>22456.140350877191</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2807.0175438596489</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>23333.333333333332</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>2916.6666666666665</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2820512820512819</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4102564102564101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F9" s="25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6">
+      <c r="J9" s="24">
+        <v>24.1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>27</v>
+      </c>
+      <c r="L9" s="24">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="M9" s="24">
+        <v>64</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P9">
+        <f>(1000/K9)*L9*M9*8</f>
+        <v>18962.962962962964</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>2370.3703703703704</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>20444.444444444445</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>2555.5555555555557</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8630705394190872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="E10" s="25">
         <v>0.01</v>
       </c>
-      <c r="G6">
+      <c r="F10" s="25">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D7">
+      <c r="J10" s="24">
+        <v>24.1</v>
+      </c>
+      <c r="K10" s="24">
+        <v>134</v>
+      </c>
+      <c r="L10" s="24">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="M10" s="24">
+        <v>64</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <f>(1000/K10)*L10*M10*8</f>
+        <v>19104.4776119403</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2388.0597014925374</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>20597.014925373136</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>2574.626865671642</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8630705394190872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C11" s="25">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="E11" s="25">
         <v>0.02</v>
       </c>
-      <c r="G7">
+      <c r="F11" s="25">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8">
+      <c r="J11" s="24">
+        <v>24.1</v>
+      </c>
+      <c r="K11" s="24">
+        <v>265</v>
+      </c>
+      <c r="L11" s="24">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="M11" s="24">
+        <v>64</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P11">
+        <f>(1000/K11)*L11*M11*8</f>
+        <v>19320.754716981133</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>2415.0943396226417</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>20830.188679245286</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>2603.7735849056608</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8630705394190872</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C12" s="25">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="D12" s="25">
+        <v>10</v>
+      </c>
+      <c r="E12" s="25">
         <v>0.05</v>
       </c>
-      <c r="G8">
+      <c r="F12" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9">
+      <c r="J12" s="24">
+        <v>24.1</v>
+      </c>
+      <c r="K12" s="24">
+        <v>2678</v>
+      </c>
+      <c r="L12" s="24">
+        <v>100</v>
+      </c>
+      <c r="M12" s="24">
+        <v>64</v>
+      </c>
+      <c r="N12" s="24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P12">
+        <f>(1000/K12)*L12*M12*8</f>
+        <v>19118.745332337567</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>2389.8431665421958</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>20612.397311426437</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>2576.5496639283047</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8630705394190872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C13" s="25">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="D13" s="25">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="E13" s="25">
         <v>0.1</v>
       </c>
-      <c r="G9">
+      <c r="F13" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10">
+      <c r="J13" s="24">
+        <v>12</v>
+      </c>
+      <c r="K13" s="24">
+        <v>12</v>
+      </c>
+      <c r="L13" s="24">
+        <v>1</v>
+      </c>
+      <c r="M13" s="24">
+        <v>20</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <f>(1000/K13)*L13*M13*8</f>
+        <v>13333.333333333332</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1666.6666666666665</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>16666.666666666664</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>2083.333333333333</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C14" s="25">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="D14" s="25">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="E14" s="25">
         <v>0.15</v>
       </c>
-      <c r="G10">
+      <c r="F14" s="25">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11">
+      <c r="J14" s="24">
+        <v>12</v>
+      </c>
+      <c r="K14" s="24">
+        <v>64</v>
+      </c>
+      <c r="L14" s="24">
+        <v>5</v>
+      </c>
+      <c r="M14" s="24">
+        <v>20</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <f>(1000/K14)*L14*M14*8</f>
+        <v>12500</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1562.5</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>15625</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>1953.125</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="25">
         <v>50</v>
       </c>
-      <c r="E11">
+      <c r="D15" s="25">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="E15" s="25">
         <v>0.24</v>
       </c>
-      <c r="G11">
+      <c r="F15" s="25">
         <v>208.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12">
+      <c r="J15" s="24">
+        <v>12</v>
+      </c>
+      <c r="K15" s="24">
+        <v>127</v>
+      </c>
+      <c r="L15" s="24">
+        <v>10</v>
+      </c>
+      <c r="M15" s="24">
+        <v>20</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <f>(1000/K15)*L15*M15*8</f>
+        <v>12598.425196850394</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1574.8031496062993</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>15748.031496062993</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>1968.5039370078741</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C16" s="25">
         <v>80</v>
       </c>
-      <c r="E12">
+      <c r="D16" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="J16" s="24">
+        <v>12</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1283</v>
+      </c>
+      <c r="L16" s="24">
         <v>100</v>
       </c>
-      <c r="E13">
+      <c r="M16" s="24">
+        <v>20</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <f>(1000/K16)*L16*M16*8</f>
+        <v>12470.771628994544</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1558.846453624318</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>15588.46453624318</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>1948.5580670303975</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
+        <v>100</v>
+      </c>
+      <c r="D17" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="J17" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="K17" s="24">
+        <v>9</v>
+      </c>
+      <c r="L17" s="24">
+        <v>1</v>
+      </c>
+      <c r="M17" s="24">
+        <v>10</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f>(1000/K17)*L17*M17*8</f>
+        <v>8888.8888888888887</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>13333.333333333334</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>1666.6666666666667</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
         <v>200</v>
       </c>
-      <c r="E14">
+      <c r="D18" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="J18" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="K18" s="24">
+        <v>50</v>
+      </c>
+      <c r="L18" s="24">
+        <v>5</v>
+      </c>
+      <c r="M18" s="24">
+        <v>10</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <f>(1000/K18)*L18*M18*8</f>
+        <v>8000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
         <v>500</v>
       </c>
-      <c r="E15">
+      <c r="D19" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D16">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="J19" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="K19" s="24">
+        <v>101</v>
+      </c>
+      <c r="L19" s="24">
+        <v>10</v>
+      </c>
+      <c r="M19" s="24">
+        <v>10</v>
+      </c>
+      <c r="N19" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <f>(1000/K19)*L19*M19*8</f>
+        <v>7920.7920792079212</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>990.09900990099015</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>11881.188118811882</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>1485.1485148514853</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
         <v>1000</v>
       </c>
-      <c r="E16">
+      <c r="D20" s="25">
         <v>10</v>
       </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="J20" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="K20" s="24">
+        <v>981</v>
+      </c>
+      <c r="L20" s="24">
+        <v>100</v>
+      </c>
+      <c r="M20" s="24">
+        <v>10</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <f>(1000/K20)*L20*M20*8</f>
+        <v>8154.9439347604484</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1019.3679918450561</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>12232.415902140672</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>1529.051987767584</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7647058823529411</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="42" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J42" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="J42:X42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5781,178 +8756,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221527D1-AF17-4805-B36A-E4D8FAA6854D}">
   <dimension ref="A1:EN311"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U111" sqref="U111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="19" max="19" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:144" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:144" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <f>(DataSizes!E5+DataSizes!E6)/2</f>
         <v>7.5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:144" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:144" ht="92.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:144" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:144" ht="92.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="17"/>
       <c r="T7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>100</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:144" x14ac:dyDescent="0.3">
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14"/>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14"/>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14"/>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14"/>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14"/>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
-      <c r="CP9" s="14"/>
-      <c r="CQ9" s="14"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="14"/>
-      <c r="CT9" s="14"/>
-      <c r="CU9" s="14"/>
-      <c r="CV9" s="14"/>
-      <c r="CW9" s="14"/>
-      <c r="CX9" s="14"/>
-      <c r="CY9" s="14"/>
-      <c r="CZ9" s="14"/>
-      <c r="DA9" s="14"/>
-      <c r="DB9" s="14"/>
-      <c r="DC9" s="14"/>
-      <c r="DD9" s="14"/>
-      <c r="DE9" s="14"/>
-      <c r="DF9" s="14"/>
-      <c r="DG9" s="14"/>
-      <c r="DH9" s="14"/>
-      <c r="DI9" s="14"/>
-      <c r="DJ9" s="14"/>
-      <c r="DK9" s="14"/>
-      <c r="DL9" s="14"/>
-      <c r="DM9" s="14"/>
-      <c r="DN9" s="14"/>
-      <c r="DO9" s="14"/>
-      <c r="DP9" s="14"/>
-      <c r="DQ9" s="14"/>
-      <c r="DR9" s="14"/>
-      <c r="DS9" s="14"/>
-      <c r="DT9" s="14"/>
-      <c r="DU9" s="14"/>
-      <c r="DV9" s="14"/>
-      <c r="DW9" s="14"/>
-      <c r="DX9" s="14"/>
-      <c r="DY9" s="14"/>
-      <c r="DZ9" s="14"/>
-      <c r="EA9" s="14"/>
-      <c r="EB9" s="14"/>
-      <c r="EC9" s="14"/>
-      <c r="ED9" s="14"/>
-      <c r="EE9" s="14"/>
-      <c r="EF9" s="14"/>
-      <c r="EG9" s="14"/>
-      <c r="EH9" s="14"/>
-      <c r="EI9" s="14"/>
-      <c r="EJ9" s="14"/>
-      <c r="EK9" s="14"/>
-      <c r="EL9" s="14"/>
-      <c r="EM9" s="14"/>
-      <c r="EN9" s="14"/>
-    </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:144" x14ac:dyDescent="0.25">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+      <c r="BQ9" s="8"/>
+      <c r="BR9" s="8"/>
+      <c r="BS9" s="8"/>
+      <c r="BT9" s="8"/>
+      <c r="BU9" s="8"/>
+      <c r="BV9" s="8"/>
+      <c r="BW9" s="8"/>
+      <c r="BX9" s="8"/>
+      <c r="BY9" s="8"/>
+      <c r="BZ9" s="8"/>
+      <c r="CA9" s="8"/>
+      <c r="CB9" s="8"/>
+      <c r="CC9" s="8"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
+      <c r="CI9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+      <c r="CM9" s="8"/>
+      <c r="CN9" s="8"/>
+      <c r="CO9" s="8"/>
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="8"/>
+      <c r="CR9" s="8"/>
+      <c r="CS9" s="8"/>
+      <c r="CT9" s="8"/>
+      <c r="CU9" s="8"/>
+      <c r="CV9" s="8"/>
+      <c r="CW9" s="8"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="CZ9" s="8"/>
+      <c r="DA9" s="8"/>
+      <c r="DB9" s="8"/>
+      <c r="DC9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8"/>
+      <c r="DI9" s="8"/>
+      <c r="DJ9" s="8"/>
+      <c r="DK9" s="8"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8"/>
+      <c r="DN9" s="8"/>
+      <c r="DO9" s="8"/>
+      <c r="DP9" s="8"/>
+      <c r="DQ9" s="8"/>
+      <c r="DR9" s="8"/>
+      <c r="DS9" s="8"/>
+      <c r="DT9" s="8"/>
+      <c r="DU9" s="8"/>
+      <c r="DV9" s="8"/>
+      <c r="DW9" s="8"/>
+      <c r="DX9" s="8"/>
+      <c r="DY9" s="8"/>
+      <c r="DZ9" s="8"/>
+      <c r="EA9" s="8"/>
+      <c r="EB9" s="8"/>
+      <c r="EC9" s="8"/>
+      <c r="ED9" s="8"/>
+      <c r="EE9" s="8"/>
+      <c r="EF9" s="8"/>
+      <c r="EG9" s="8"/>
+      <c r="EH9" s="8"/>
+      <c r="EI9" s="8"/>
+      <c r="EJ9" s="8"/>
+      <c r="EK9" s="8"/>
+      <c r="EL9" s="8"/>
+      <c r="EM9" s="8"/>
+      <c r="EN9" s="8"/>
+    </row>
+    <row r="10" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O10" t="s">
         <v>41</v>
       </c>
@@ -5960,26 +8935,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O11" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="14" t="s">
+      <c r="U11" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="14">
-        <f>(1000/O12*$A$8*$A$3)/128</f>
+      <c r="P12" s="8">
+        <f t="shared" ref="P12:P43" si="0">(1000/O12*$A$8*$A$3)/128</f>
         <v>5859.375</v>
       </c>
       <c r="T12">
@@ -5990,347 +8965,347 @@
         <v>11.71875</v>
       </c>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O13">
         <v>2</v>
       </c>
-      <c r="P13" s="14">
-        <f>(1000/O13*$A$8*$A$3)/128</f>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
         <v>2929.6875</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U76" si="0">(1000/$A$34*T13*$A$3)/128</f>
+        <f t="shared" ref="U13:U76" si="1">(1000/$A$34*T13*$A$3)/128</f>
         <v>23.4375</v>
       </c>
     </row>
-    <row r="14" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O14">
         <v>3</v>
       </c>
-      <c r="P14" s="14">
-        <f>(1000/O14*$A$8*$A$3)/128</f>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
         <v>1953.1249999999998</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.15625</v>
       </c>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O15">
         <v>4</v>
       </c>
-      <c r="P15" s="14">
-        <f>(1000/O15*$A$8*$A$3)/128</f>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
         <v>1464.84375</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
       <c r="U15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.875</v>
       </c>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.25">
       <c r="O16">
         <v>5</v>
       </c>
-      <c r="P16" s="14">
-        <f>(1000/O16*$A$8*$A$3)/128</f>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
         <v>1171.875</v>
       </c>
       <c r="T16">
         <v>5</v>
       </c>
       <c r="U16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.59375</v>
       </c>
     </row>
-    <row r="17" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O17">
         <v>6</v>
       </c>
-      <c r="P17" s="14">
-        <f>(1000/O17*$A$8*$A$3)/128</f>
+      <c r="P17" s="8">
+        <f t="shared" si="0"/>
         <v>976.56249999999989</v>
       </c>
       <c r="T17">
         <v>6</v>
       </c>
       <c r="U17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.3125</v>
       </c>
     </row>
-    <row r="18" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O18">
         <v>7</v>
       </c>
-      <c r="P18" s="14">
-        <f>(1000/O18*$A$8*$A$3)/128</f>
+      <c r="P18" s="8">
+        <f t="shared" si="0"/>
         <v>837.05357142857144</v>
       </c>
       <c r="T18">
         <v>7</v>
       </c>
       <c r="U18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82.03125</v>
       </c>
     </row>
-    <row r="19" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O19">
         <v>8</v>
       </c>
-      <c r="P19" s="14">
-        <f>(1000/O19*$A$8*$A$3)/128</f>
+      <c r="P19" s="8">
+        <f t="shared" si="0"/>
         <v>732.421875</v>
       </c>
       <c r="T19">
         <v>8</v>
       </c>
       <c r="U19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93.75</v>
       </c>
     </row>
-    <row r="20" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O20">
         <v>9</v>
       </c>
-      <c r="P20" s="14">
-        <f>(1000/O20*$A$8*$A$3)/128</f>
+      <c r="P20" s="8">
+        <f t="shared" si="0"/>
         <v>651.04166666666663</v>
       </c>
       <c r="T20">
         <v>9</v>
       </c>
       <c r="U20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105.46875</v>
       </c>
     </row>
-    <row r="21" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O21">
         <v>10</v>
       </c>
-      <c r="P21" s="14">
-        <f>(1000/O21*$A$8*$A$3)/128</f>
+      <c r="P21" s="8">
+        <f t="shared" si="0"/>
         <v>585.9375</v>
       </c>
       <c r="T21">
         <v>10</v>
       </c>
       <c r="U21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.1875</v>
       </c>
     </row>
-    <row r="22" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O22">
         <v>11</v>
       </c>
-      <c r="P22" s="14">
-        <f>(1000/O22*$A$8*$A$3)/128</f>
+      <c r="P22" s="8">
+        <f t="shared" si="0"/>
         <v>532.6704545454545</v>
       </c>
       <c r="T22">
         <v>11</v>
       </c>
       <c r="U22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128.90625</v>
       </c>
     </row>
-    <row r="23" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O23">
         <v>12</v>
       </c>
-      <c r="P23" s="14">
-        <f>(1000/O23*$A$8*$A$3)/128</f>
+      <c r="P23" s="8">
+        <f t="shared" si="0"/>
         <v>488.28124999999994</v>
       </c>
       <c r="T23">
         <v>12</v>
       </c>
       <c r="U23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140.625</v>
       </c>
     </row>
-    <row r="24" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O24">
         <v>13</v>
       </c>
-      <c r="P24" s="14">
-        <f>(1000/O24*$A$8*$A$3)/128</f>
+      <c r="P24" s="8">
+        <f t="shared" si="0"/>
         <v>450.72115384615387</v>
       </c>
       <c r="T24">
         <v>13</v>
       </c>
       <c r="U24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>152.34375</v>
       </c>
     </row>
-    <row r="25" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O25">
         <v>14</v>
       </c>
-      <c r="P25" s="14">
-        <f>(1000/O25*$A$8*$A$3)/128</f>
+      <c r="P25" s="8">
+        <f t="shared" si="0"/>
         <v>418.52678571428572</v>
       </c>
       <c r="T25">
         <v>14</v>
       </c>
       <c r="U25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>164.0625</v>
       </c>
     </row>
-    <row r="26" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O26">
         <v>15</v>
       </c>
-      <c r="P26" s="14">
-        <f>(1000/O26*$A$8*$A$3)/128</f>
+      <c r="P26" s="8">
+        <f t="shared" si="0"/>
         <v>390.625</v>
       </c>
       <c r="T26">
         <v>15</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175.78125</v>
       </c>
     </row>
-    <row r="27" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O27">
         <v>16</v>
       </c>
-      <c r="P27" s="14">
-        <f>(1000/O27*$A$8*$A$3)/128</f>
+      <c r="P27" s="8">
+        <f t="shared" si="0"/>
         <v>366.2109375</v>
       </c>
       <c r="T27">
         <v>16</v>
       </c>
       <c r="U27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>187.5</v>
       </c>
     </row>
-    <row r="28" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O28">
         <v>17</v>
       </c>
-      <c r="P28" s="14">
-        <f>(1000/O28*$A$8*$A$3)/128</f>
+      <c r="P28" s="8">
+        <f t="shared" si="0"/>
         <v>344.66911764705878</v>
       </c>
       <c r="T28">
         <v>17</v>
       </c>
       <c r="U28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199.21875</v>
       </c>
     </row>
-    <row r="29" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O29">
         <v>18</v>
       </c>
-      <c r="P29" s="14">
-        <f>(1000/O29*$A$8*$A$3)/128</f>
+      <c r="P29" s="8">
+        <f t="shared" si="0"/>
         <v>325.52083333333331</v>
       </c>
       <c r="T29">
         <v>18</v>
       </c>
       <c r="U29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.9375</v>
       </c>
     </row>
-    <row r="30" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O30">
         <v>19</v>
       </c>
-      <c r="P30" s="14">
-        <f>(1000/O30*$A$8*$A$3)/128</f>
+      <c r="P30" s="8">
+        <f t="shared" si="0"/>
         <v>308.38815789473682</v>
       </c>
       <c r="T30">
         <v>19</v>
       </c>
       <c r="U30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>222.65625</v>
       </c>
     </row>
-    <row r="31" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O31">
         <v>20</v>
       </c>
-      <c r="P31" s="14">
-        <f>(1000/O31*$A$8*$A$3)/128</f>
+      <c r="P31" s="8">
+        <f t="shared" si="0"/>
         <v>292.96875</v>
       </c>
       <c r="T31">
         <v>20</v>
       </c>
       <c r="U31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>234.375</v>
       </c>
     </row>
-    <row r="32" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O32">
         <v>21</v>
       </c>
-      <c r="P32" s="14">
-        <f>(1000/O32*$A$8*$A$3)/128</f>
+      <c r="P32" s="8">
+        <f t="shared" si="0"/>
         <v>279.01785714285717</v>
       </c>
       <c r="T32">
         <v>21</v>
       </c>
       <c r="U32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>246.09375</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="16"/>
       <c r="O33">
         <v>22</v>
       </c>
-      <c r="P33" s="14">
-        <f>(1000/O33*$A$8*$A$3)/128</f>
+      <c r="P33" s="8">
+        <f t="shared" si="0"/>
         <v>266.33522727272725</v>
       </c>
       <c r="T33">
         <v>22</v>
       </c>
       <c r="U33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>257.8125</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>5</v>
       </c>
@@ -6338,3233 +9313,3233 @@
       <c r="O34">
         <v>23</v>
       </c>
-      <c r="P34" s="14">
-        <f>(1000/O34*$A$8*$A$3)/128</f>
+      <c r="P34" s="8">
+        <f t="shared" si="0"/>
         <v>254.75543478260872</v>
       </c>
       <c r="T34">
         <v>23</v>
       </c>
       <c r="U34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269.53125</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O35">
         <v>24</v>
       </c>
-      <c r="P35" s="14">
-        <f>(1000/O35*$A$8*$A$3)/128</f>
+      <c r="P35" s="8">
+        <f t="shared" si="0"/>
         <v>244.14062499999997</v>
       </c>
       <c r="T35">
         <v>24</v>
       </c>
       <c r="U35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>281.25</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O36">
         <v>25</v>
       </c>
-      <c r="P36" s="14">
-        <f>(1000/O36*$A$8*$A$3)/128</f>
+      <c r="P36" s="8">
+        <f t="shared" si="0"/>
         <v>234.375</v>
       </c>
       <c r="T36">
         <v>25</v>
       </c>
       <c r="U36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>292.96875</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O37">
         <v>26</v>
       </c>
-      <c r="P37" s="14">
-        <f>(1000/O37*$A$8*$A$3)/128</f>
+      <c r="P37" s="8">
+        <f t="shared" si="0"/>
         <v>225.36057692307693</v>
       </c>
       <c r="T37">
         <v>26</v>
       </c>
       <c r="U37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>304.6875</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O38">
         <v>27</v>
       </c>
-      <c r="P38" s="14">
-        <f>(1000/O38*$A$8*$A$3)/128</f>
+      <c r="P38" s="8">
+        <f t="shared" si="0"/>
         <v>217.01388888888891</v>
       </c>
       <c r="T38">
         <v>27</v>
       </c>
       <c r="U38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>316.40625</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O39">
         <v>28</v>
       </c>
-      <c r="P39" s="14">
-        <f>(1000/O39*$A$8*$A$3)/128</f>
+      <c r="P39" s="8">
+        <f t="shared" si="0"/>
         <v>209.26339285714286</v>
       </c>
       <c r="T39">
         <v>28</v>
       </c>
       <c r="U39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>328.125</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O40">
         <v>29</v>
       </c>
-      <c r="P40" s="14">
-        <f>(1000/O40*$A$8*$A$3)/128</f>
+      <c r="P40" s="8">
+        <f t="shared" si="0"/>
         <v>202.04741379310349</v>
       </c>
       <c r="T40">
         <v>29</v>
       </c>
       <c r="U40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>339.84375</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O41">
         <v>30</v>
       </c>
-      <c r="P41" s="14">
-        <f>(1000/O41*$A$8*$A$3)/128</f>
+      <c r="P41" s="8">
+        <f t="shared" si="0"/>
         <v>195.3125</v>
       </c>
       <c r="T41">
         <v>30</v>
       </c>
       <c r="U41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>351.5625</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O42">
         <v>31</v>
       </c>
-      <c r="P42" s="14">
-        <f>(1000/O42*$A$8*$A$3)/128</f>
+      <c r="P42" s="8">
+        <f t="shared" si="0"/>
         <v>189.01209677419357</v>
       </c>
       <c r="T42">
         <v>31</v>
       </c>
       <c r="U42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>363.28125</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O43">
         <v>32</v>
       </c>
-      <c r="P43" s="14">
-        <f>(1000/O43*$A$8*$A$3)/128</f>
+      <c r="P43" s="8">
+        <f t="shared" si="0"/>
         <v>183.10546875</v>
       </c>
       <c r="T43">
         <v>32</v>
       </c>
       <c r="U43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O44">
         <v>33</v>
       </c>
-      <c r="P44" s="14">
-        <f>(1000/O44*$A$8*$A$3)/128</f>
+      <c r="P44" s="8">
+        <f t="shared" ref="P44:P75" si="2">(1000/O44*$A$8*$A$3)/128</f>
         <v>177.55681818181819</v>
       </c>
       <c r="T44">
         <v>33</v>
       </c>
       <c r="U44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>386.71875</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O45">
         <v>34</v>
       </c>
-      <c r="P45" s="14">
-        <f>(1000/O45*$A$8*$A$3)/128</f>
+      <c r="P45" s="8">
+        <f t="shared" si="2"/>
         <v>172.33455882352939</v>
       </c>
       <c r="T45">
         <v>34</v>
       </c>
       <c r="U45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>398.4375</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O46">
         <v>35</v>
       </c>
-      <c r="P46" s="14">
-        <f>(1000/O46*$A$8*$A$3)/128</f>
+      <c r="P46" s="8">
+        <f t="shared" si="2"/>
         <v>167.41071428571431</v>
       </c>
       <c r="T46">
         <v>35</v>
       </c>
       <c r="U46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>410.15625</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O47">
         <v>36</v>
       </c>
-      <c r="P47" s="14">
-        <f>(1000/O47*$A$8*$A$3)/128</f>
+      <c r="P47" s="8">
+        <f t="shared" si="2"/>
         <v>162.76041666666666</v>
       </c>
       <c r="T47">
         <v>36</v>
       </c>
       <c r="U47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O48">
         <v>37</v>
       </c>
-      <c r="P48" s="14">
-        <f>(1000/O48*$A$8*$A$3)/128</f>
+      <c r="P48" s="8">
+        <f t="shared" si="2"/>
         <v>158.36148648648651</v>
       </c>
       <c r="T48">
         <v>37</v>
       </c>
       <c r="U48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>433.59375</v>
       </c>
     </row>
-    <row r="49" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O49">
         <v>38</v>
       </c>
-      <c r="P49" s="14">
-        <f>(1000/O49*$A$8*$A$3)/128</f>
+      <c r="P49" s="8">
+        <f t="shared" si="2"/>
         <v>154.19407894736841</v>
       </c>
       <c r="T49">
         <v>38</v>
       </c>
       <c r="U49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>445.3125</v>
       </c>
     </row>
-    <row r="50" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O50">
         <v>39</v>
       </c>
-      <c r="P50" s="14">
-        <f>(1000/O50*$A$8*$A$3)/128</f>
+      <c r="P50" s="8">
+        <f t="shared" si="2"/>
         <v>150.24038461538464</v>
       </c>
       <c r="T50">
         <v>39</v>
       </c>
       <c r="U50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>457.03125</v>
       </c>
     </row>
-    <row r="51" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O51">
         <v>40</v>
       </c>
-      <c r="P51" s="14">
-        <f>(1000/O51*$A$8*$A$3)/128</f>
+      <c r="P51" s="8">
+        <f t="shared" si="2"/>
         <v>146.484375</v>
       </c>
       <c r="T51">
         <v>40</v>
       </c>
       <c r="U51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>468.75</v>
       </c>
     </row>
-    <row r="52" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O52">
         <v>41</v>
       </c>
-      <c r="P52" s="14">
-        <f>(1000/O52*$A$8*$A$3)/128</f>
+      <c r="P52" s="8">
+        <f t="shared" si="2"/>
         <v>142.91158536585365</v>
       </c>
       <c r="T52">
         <v>41</v>
       </c>
       <c r="U52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>480.46875</v>
       </c>
     </row>
-    <row r="53" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O53">
         <v>42</v>
       </c>
-      <c r="P53" s="14">
-        <f>(1000/O53*$A$8*$A$3)/128</f>
+      <c r="P53" s="8">
+        <f t="shared" si="2"/>
         <v>139.50892857142858</v>
       </c>
       <c r="T53">
         <v>42</v>
       </c>
       <c r="U53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>492.1875</v>
       </c>
     </row>
-    <row r="54" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O54">
         <v>43</v>
       </c>
-      <c r="P54" s="14">
-        <f>(1000/O54*$A$8*$A$3)/128</f>
+      <c r="P54" s="8">
+        <f t="shared" si="2"/>
         <v>136.2645348837209</v>
       </c>
       <c r="T54">
         <v>43</v>
       </c>
       <c r="U54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>503.90625</v>
       </c>
     </row>
-    <row r="55" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O55">
         <v>44</v>
       </c>
-      <c r="P55" s="14">
-        <f>(1000/O55*$A$8*$A$3)/128</f>
+      <c r="P55" s="8">
+        <f t="shared" si="2"/>
         <v>133.16761363636363</v>
       </c>
       <c r="T55">
         <v>44</v>
       </c>
       <c r="U55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>515.625</v>
       </c>
     </row>
-    <row r="56" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O56">
         <v>45</v>
       </c>
-      <c r="P56" s="14">
-        <f>(1000/O56*$A$8*$A$3)/128</f>
+      <c r="P56" s="8">
+        <f t="shared" si="2"/>
         <v>130.20833333333334</v>
       </c>
       <c r="T56">
         <v>45</v>
       </c>
       <c r="U56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527.34375</v>
       </c>
     </row>
-    <row r="57" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O57">
         <v>46</v>
       </c>
-      <c r="P57" s="14">
-        <f>(1000/O57*$A$8*$A$3)/128</f>
+      <c r="P57" s="8">
+        <f t="shared" si="2"/>
         <v>127.37771739130436</v>
       </c>
       <c r="T57">
         <v>46</v>
       </c>
       <c r="U57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>539.0625</v>
       </c>
     </row>
-    <row r="58" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O58">
         <v>47</v>
       </c>
-      <c r="P58" s="14">
-        <f>(1000/O58*$A$8*$A$3)/128</f>
+      <c r="P58" s="8">
+        <f t="shared" si="2"/>
         <v>124.66755319148935</v>
       </c>
       <c r="T58">
         <v>47</v>
       </c>
       <c r="U58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550.78125</v>
       </c>
     </row>
-    <row r="59" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O59">
         <v>48</v>
       </c>
-      <c r="P59" s="14">
-        <f>(1000/O59*$A$8*$A$3)/128</f>
+      <c r="P59" s="8">
+        <f t="shared" si="2"/>
         <v>122.07031249999999</v>
       </c>
       <c r="T59">
         <v>48</v>
       </c>
       <c r="U59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>562.5</v>
       </c>
     </row>
-    <row r="60" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O60">
         <v>49</v>
       </c>
-      <c r="P60" s="14">
-        <f>(1000/O60*$A$8*$A$3)/128</f>
+      <c r="P60" s="8">
+        <f t="shared" si="2"/>
         <v>119.57908163265306</v>
       </c>
       <c r="T60">
         <v>49</v>
       </c>
       <c r="U60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>574.21875</v>
       </c>
     </row>
-    <row r="61" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O61">
         <v>50</v>
       </c>
-      <c r="P61" s="14">
-        <f>(1000/O61*$A$8*$A$3)/128</f>
+      <c r="P61" s="8">
+        <f t="shared" si="2"/>
         <v>117.1875</v>
       </c>
       <c r="T61">
         <v>50</v>
       </c>
       <c r="U61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>585.9375</v>
       </c>
     </row>
-    <row r="62" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O62">
         <v>60</v>
       </c>
-      <c r="P62" s="14">
-        <f>(1000/O62*$A$8*$A$3)/128</f>
+      <c r="P62" s="8">
+        <f t="shared" si="2"/>
         <v>97.65625</v>
       </c>
       <c r="T62">
         <v>51</v>
       </c>
       <c r="U62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>597.65625</v>
       </c>
     </row>
-    <row r="63" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O63">
         <v>70</v>
       </c>
-      <c r="P63" s="14">
-        <f>(1000/O63*$A$8*$A$3)/128</f>
+      <c r="P63" s="8">
+        <f t="shared" si="2"/>
         <v>83.705357142857153</v>
       </c>
       <c r="T63">
         <v>52</v>
       </c>
       <c r="U63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>609.375</v>
       </c>
     </row>
-    <row r="64" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O64">
         <v>80</v>
       </c>
-      <c r="P64" s="14">
-        <f>(1000/O64*$A$8*$A$3)/128</f>
+      <c r="P64" s="8">
+        <f t="shared" si="2"/>
         <v>73.2421875</v>
       </c>
       <c r="T64">
         <v>53</v>
       </c>
       <c r="U64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>621.09375</v>
       </c>
     </row>
-    <row r="65" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O65">
         <v>90</v>
       </c>
-      <c r="P65" s="14">
-        <f>(1000/O65*$A$8*$A$3)/128</f>
+      <c r="P65" s="8">
+        <f t="shared" si="2"/>
         <v>65.104166666666671</v>
       </c>
       <c r="T65">
         <v>54</v>
       </c>
       <c r="U65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>632.8125</v>
       </c>
     </row>
-    <row r="66" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O66">
         <v>100</v>
       </c>
-      <c r="P66" s="14">
-        <f>(1000/O66*$A$8*$A$3)/128</f>
+      <c r="P66" s="8">
+        <f t="shared" si="2"/>
         <v>58.59375</v>
       </c>
       <c r="T66">
         <v>55</v>
       </c>
       <c r="U66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644.53125</v>
       </c>
     </row>
-    <row r="67" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O67">
         <v>110</v>
       </c>
-      <c r="P67" s="14">
-        <f>(1000/O67*$A$8*$A$3)/128</f>
+      <c r="P67" s="8">
+        <f t="shared" si="2"/>
         <v>53.267045454545453</v>
       </c>
       <c r="T67">
         <v>56</v>
       </c>
       <c r="U67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>656.25</v>
       </c>
     </row>
-    <row r="68" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O68">
         <v>120</v>
       </c>
-      <c r="P68" s="14">
-        <f>(1000/O68*$A$8*$A$3)/128</f>
+      <c r="P68" s="8">
+        <f t="shared" si="2"/>
         <v>48.828125</v>
       </c>
       <c r="T68">
         <v>57</v>
       </c>
       <c r="U68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>667.96875</v>
       </c>
     </row>
-    <row r="69" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O69">
         <v>130</v>
       </c>
-      <c r="P69" s="14">
-        <f>(1000/O69*$A$8*$A$3)/128</f>
+      <c r="P69" s="8">
+        <f t="shared" si="2"/>
         <v>45.072115384615387</v>
       </c>
       <c r="T69">
         <v>58</v>
       </c>
       <c r="U69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>679.6875</v>
       </c>
     </row>
-    <row r="70" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O70">
         <v>140</v>
       </c>
-      <c r="P70" s="14">
-        <f>(1000/O70*$A$8*$A$3)/128</f>
+      <c r="P70" s="8">
+        <f t="shared" si="2"/>
         <v>41.852678571428577</v>
       </c>
       <c r="T70">
         <v>59</v>
       </c>
       <c r="U70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>691.40625</v>
       </c>
     </row>
-    <row r="71" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O71">
         <v>150</v>
       </c>
-      <c r="P71" s="14">
-        <f>(1000/O71*$A$8*$A$3)/128</f>
+      <c r="P71" s="8">
+        <f t="shared" si="2"/>
         <v>39.062500000000007</v>
       </c>
       <c r="T71">
         <v>60</v>
       </c>
       <c r="U71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>703.125</v>
       </c>
     </row>
-    <row r="72" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O72">
         <v>160</v>
       </c>
-      <c r="P72" s="14">
-        <f>(1000/O72*$A$8*$A$3)/128</f>
+      <c r="P72" s="8">
+        <f t="shared" si="2"/>
         <v>36.62109375</v>
       </c>
       <c r="T72">
         <v>61</v>
       </c>
       <c r="U72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>714.84375</v>
       </c>
     </row>
-    <row r="73" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O73">
         <v>170</v>
       </c>
-      <c r="P73" s="14">
-        <f>(1000/O73*$A$8*$A$3)/128</f>
+      <c r="P73" s="8">
+        <f t="shared" si="2"/>
         <v>34.466911764705884</v>
       </c>
       <c r="T73">
         <v>62</v>
       </c>
       <c r="U73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>726.5625</v>
       </c>
     </row>
-    <row r="74" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O74">
         <v>180</v>
       </c>
-      <c r="P74" s="14">
-        <f>(1000/O74*$A$8*$A$3)/128</f>
+      <c r="P74" s="8">
+        <f t="shared" si="2"/>
         <v>32.552083333333336</v>
       </c>
       <c r="T74">
         <v>63</v>
       </c>
       <c r="U74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>738.28125</v>
       </c>
     </row>
-    <row r="75" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O75">
         <v>190</v>
       </c>
-      <c r="P75" s="14">
-        <f>(1000/O75*$A$8*$A$3)/128</f>
+      <c r="P75" s="8">
+        <f t="shared" si="2"/>
         <v>30.838815789473689</v>
       </c>
       <c r="T75">
         <v>64</v>
       </c>
       <c r="U75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
-    <row r="76" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O76">
         <v>200</v>
       </c>
-      <c r="P76" s="14">
-        <f>(1000/O76*$A$8*$A$3)/128</f>
+      <c r="P76" s="8">
+        <f t="shared" ref="P76:P107" si="3">(1000/O76*$A$8*$A$3)/128</f>
         <v>29.296875</v>
       </c>
       <c r="T76">
         <v>65</v>
       </c>
       <c r="U76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>761.71875</v>
       </c>
     </row>
-    <row r="77" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O77">
         <v>210</v>
       </c>
-      <c r="P77" s="14">
-        <f>(1000/O77*$A$8*$A$3)/128</f>
+      <c r="P77" s="8">
+        <f t="shared" si="3"/>
         <v>27.901785714285715</v>
       </c>
       <c r="T77">
         <v>66</v>
       </c>
       <c r="U77">
-        <f t="shared" ref="U77:U140" si="1">(1000/$A$34*T77*$A$3)/128</f>
+        <f t="shared" ref="U77:U140" si="4">(1000/$A$34*T77*$A$3)/128</f>
         <v>773.4375</v>
       </c>
     </row>
-    <row r="78" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O78">
         <v>220</v>
       </c>
-      <c r="P78" s="14">
-        <f>(1000/O78*$A$8*$A$3)/128</f>
+      <c r="P78" s="8">
+        <f t="shared" si="3"/>
         <v>26.633522727272727</v>
       </c>
       <c r="T78">
         <v>67</v>
       </c>
       <c r="U78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>785.15625</v>
       </c>
     </row>
-    <row r="79" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O79">
         <v>230</v>
       </c>
-      <c r="P79" s="14">
-        <f>(1000/O79*$A$8*$A$3)/128</f>
+      <c r="P79" s="8">
+        <f t="shared" si="3"/>
         <v>25.475543478260867</v>
       </c>
       <c r="T79">
         <v>68</v>
       </c>
       <c r="U79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>796.875</v>
       </c>
     </row>
-    <row r="80" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O80">
         <v>240</v>
       </c>
-      <c r="P80" s="14">
-        <f>(1000/O80*$A$8*$A$3)/128</f>
+      <c r="P80" s="8">
+        <f t="shared" si="3"/>
         <v>24.4140625</v>
       </c>
       <c r="T80">
         <v>69</v>
       </c>
       <c r="U80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>808.59375</v>
       </c>
     </row>
-    <row r="81" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O81">
         <v>250</v>
       </c>
-      <c r="P81" s="14">
-        <f>(1000/O81*$A$8*$A$3)/128</f>
+      <c r="P81" s="8">
+        <f t="shared" si="3"/>
         <v>23.4375</v>
       </c>
       <c r="T81">
         <v>70</v>
       </c>
       <c r="U81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>820.3125</v>
       </c>
     </row>
-    <row r="82" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O82">
         <v>260</v>
       </c>
-      <c r="P82" s="14">
-        <f>(1000/O82*$A$8*$A$3)/128</f>
+      <c r="P82" s="8">
+        <f t="shared" si="3"/>
         <v>22.536057692307693</v>
       </c>
       <c r="T82">
         <v>71</v>
       </c>
       <c r="U82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>832.03125</v>
       </c>
     </row>
-    <row r="83" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O83">
         <v>270</v>
       </c>
-      <c r="P83" s="14">
-        <f>(1000/O83*$A$8*$A$3)/128</f>
+      <c r="P83" s="8">
+        <f t="shared" si="3"/>
         <v>21.701388888888889</v>
       </c>
       <c r="T83">
         <v>72</v>
       </c>
       <c r="U83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>843.75</v>
       </c>
     </row>
-    <row r="84" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O84">
         <v>280</v>
       </c>
-      <c r="P84" s="14">
-        <f>(1000/O84*$A$8*$A$3)/128</f>
+      <c r="P84" s="8">
+        <f t="shared" si="3"/>
         <v>20.926339285714288</v>
       </c>
       <c r="T84">
         <v>73</v>
       </c>
       <c r="U84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>855.46875</v>
       </c>
     </row>
-    <row r="85" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O85">
         <v>290</v>
       </c>
-      <c r="P85" s="14">
-        <f>(1000/O85*$A$8*$A$3)/128</f>
+      <c r="P85" s="8">
+        <f t="shared" si="3"/>
         <v>20.204741379310342</v>
       </c>
       <c r="T85">
         <v>74</v>
       </c>
       <c r="U85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>867.1875</v>
       </c>
     </row>
-    <row r="86" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O86">
         <v>300</v>
       </c>
-      <c r="P86" s="14">
-        <f>(1000/O86*$A$8*$A$3)/128</f>
+      <c r="P86" s="8">
+        <f t="shared" si="3"/>
         <v>19.531250000000004</v>
       </c>
       <c r="T86">
         <v>75</v>
       </c>
       <c r="U86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>878.90625</v>
       </c>
     </row>
-    <row r="87" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O87">
         <v>310</v>
       </c>
-      <c r="P87" s="14">
-        <f>(1000/O87*$A$8*$A$3)/128</f>
+      <c r="P87" s="8">
+        <f t="shared" si="3"/>
         <v>18.901209677419352</v>
       </c>
       <c r="T87">
         <v>76</v>
       </c>
       <c r="U87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>890.625</v>
       </c>
     </row>
-    <row r="88" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O88">
         <v>320</v>
       </c>
-      <c r="P88" s="14">
-        <f>(1000/O88*$A$8*$A$3)/128</f>
+      <c r="P88" s="8">
+        <f t="shared" si="3"/>
         <v>18.310546875</v>
       </c>
       <c r="T88">
         <v>77</v>
       </c>
       <c r="U88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>902.34375</v>
       </c>
     </row>
-    <row r="89" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O89">
         <v>330</v>
       </c>
-      <c r="P89" s="14">
-        <f>(1000/O89*$A$8*$A$3)/128</f>
+      <c r="P89" s="8">
+        <f t="shared" si="3"/>
         <v>17.755681818181817</v>
       </c>
       <c r="T89">
         <v>78</v>
       </c>
       <c r="U89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>914.0625</v>
       </c>
     </row>
-    <row r="90" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O90">
         <v>340</v>
       </c>
-      <c r="P90" s="14">
-        <f>(1000/O90*$A$8*$A$3)/128</f>
+      <c r="P90" s="8">
+        <f t="shared" si="3"/>
         <v>17.233455882352942</v>
       </c>
       <c r="T90">
         <v>79</v>
       </c>
       <c r="U90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>925.78125</v>
       </c>
     </row>
-    <row r="91" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O91">
         <v>350</v>
       </c>
-      <c r="P91" s="14">
-        <f>(1000/O91*$A$8*$A$3)/128</f>
+      <c r="P91" s="8">
+        <f t="shared" si="3"/>
         <v>16.741071428571431</v>
       </c>
       <c r="T91">
         <v>80</v>
       </c>
       <c r="U91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>937.5</v>
       </c>
     </row>
-    <row r="92" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O92">
         <v>360</v>
       </c>
-      <c r="P92" s="14">
-        <f>(1000/O92*$A$8*$A$3)/128</f>
+      <c r="P92" s="8">
+        <f t="shared" si="3"/>
         <v>16.276041666666668</v>
       </c>
       <c r="T92">
         <v>81</v>
       </c>
       <c r="U92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>949.21875</v>
       </c>
     </row>
-    <row r="93" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O93">
         <v>370</v>
       </c>
-      <c r="P93" s="14">
-        <f>(1000/O93*$A$8*$A$3)/128</f>
+      <c r="P93" s="8">
+        <f t="shared" si="3"/>
         <v>15.836148648648647</v>
       </c>
       <c r="T93">
         <v>82</v>
       </c>
       <c r="U93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>960.9375</v>
       </c>
     </row>
-    <row r="94" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O94">
         <v>380</v>
       </c>
-      <c r="P94" s="14">
-        <f>(1000/O94*$A$8*$A$3)/128</f>
+      <c r="P94" s="8">
+        <f t="shared" si="3"/>
         <v>15.419407894736844</v>
       </c>
       <c r="T94">
         <v>83</v>
       </c>
       <c r="U94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>972.65625</v>
       </c>
     </row>
-    <row r="95" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O95">
         <v>390</v>
       </c>
-      <c r="P95" s="14">
-        <f>(1000/O95*$A$8*$A$3)/128</f>
+      <c r="P95" s="8">
+        <f t="shared" si="3"/>
         <v>15.024038461538462</v>
       </c>
       <c r="T95">
         <v>84</v>
       </c>
       <c r="U95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>984.375</v>
       </c>
     </row>
-    <row r="96" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O96">
         <v>400</v>
       </c>
-      <c r="P96" s="14">
-        <f>(1000/O96*$A$8*$A$3)/128</f>
+      <c r="P96" s="8">
+        <f t="shared" si="3"/>
         <v>14.6484375</v>
       </c>
       <c r="T96">
         <v>85</v>
       </c>
       <c r="U96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>996.09375</v>
       </c>
     </row>
-    <row r="97" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O97">
         <v>410</v>
       </c>
-      <c r="P97" s="14">
-        <f>(1000/O97*$A$8*$A$3)/128</f>
+      <c r="P97" s="8">
+        <f t="shared" si="3"/>
         <v>14.291158536585366</v>
       </c>
       <c r="T97">
         <v>86</v>
       </c>
       <c r="U97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1007.8125</v>
       </c>
     </row>
-    <row r="98" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O98">
         <v>420</v>
       </c>
-      <c r="P98" s="14">
-        <f>(1000/O98*$A$8*$A$3)/128</f>
+      <c r="P98" s="8">
+        <f t="shared" si="3"/>
         <v>13.950892857142858</v>
       </c>
       <c r="T98">
         <v>87</v>
       </c>
       <c r="U98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1019.53125</v>
       </c>
     </row>
-    <row r="99" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O99">
         <v>430</v>
       </c>
-      <c r="P99" s="14">
-        <f>(1000/O99*$A$8*$A$3)/128</f>
+      <c r="P99" s="8">
+        <f t="shared" si="3"/>
         <v>13.626453488372094</v>
       </c>
       <c r="T99">
         <v>88</v>
       </c>
       <c r="U99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1031.25</v>
       </c>
     </row>
-    <row r="100" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O100">
         <v>440</v>
       </c>
-      <c r="P100" s="14">
-        <f>(1000/O100*$A$8*$A$3)/128</f>
+      <c r="P100" s="8">
+        <f t="shared" si="3"/>
         <v>13.316761363636363</v>
       </c>
       <c r="T100">
         <v>89</v>
       </c>
       <c r="U100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1042.96875</v>
       </c>
     </row>
-    <row r="101" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O101">
         <v>450</v>
       </c>
-      <c r="P101" s="14">
-        <f>(1000/O101*$A$8*$A$3)/128</f>
+      <c r="P101" s="8">
+        <f t="shared" si="3"/>
         <v>13.020833333333334</v>
       </c>
       <c r="T101">
         <v>90</v>
       </c>
       <c r="U101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1054.6875</v>
       </c>
     </row>
-    <row r="102" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O102">
         <v>460</v>
       </c>
-      <c r="P102" s="14">
-        <f>(1000/O102*$A$8*$A$3)/128</f>
+      <c r="P102" s="8">
+        <f t="shared" si="3"/>
         <v>12.737771739130434</v>
       </c>
       <c r="T102">
         <v>91</v>
       </c>
       <c r="U102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1066.40625</v>
       </c>
     </row>
-    <row r="103" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O103">
         <v>470</v>
       </c>
-      <c r="P103" s="14">
-        <f>(1000/O103*$A$8*$A$3)/128</f>
+      <c r="P103" s="8">
+        <f t="shared" si="3"/>
         <v>12.466755319148936</v>
       </c>
       <c r="T103">
         <v>92</v>
       </c>
       <c r="U103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1078.125</v>
       </c>
     </row>
-    <row r="104" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O104">
         <v>480</v>
       </c>
-      <c r="P104" s="14">
-        <f>(1000/O104*$A$8*$A$3)/128</f>
+      <c r="P104" s="8">
+        <f t="shared" si="3"/>
         <v>12.20703125</v>
       </c>
       <c r="T104">
         <v>93</v>
       </c>
       <c r="U104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1089.84375</v>
       </c>
     </row>
-    <row r="105" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O105">
         <v>490</v>
       </c>
-      <c r="P105" s="14">
-        <f>(1000/O105*$A$8*$A$3)/128</f>
+      <c r="P105" s="8">
+        <f t="shared" si="3"/>
         <v>11.957908163265307</v>
       </c>
       <c r="T105">
         <v>94</v>
       </c>
       <c r="U105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1101.5625</v>
       </c>
     </row>
-    <row r="106" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O106">
         <v>500</v>
       </c>
-      <c r="P106" s="14">
-        <f>(1000/O106*$A$8*$A$3)/128</f>
+      <c r="P106" s="8">
+        <f t="shared" si="3"/>
         <v>11.71875</v>
       </c>
       <c r="T106">
         <v>95</v>
       </c>
       <c r="U106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1113.28125</v>
       </c>
     </row>
-    <row r="107" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O107">
         <v>550</v>
       </c>
-      <c r="P107" s="14">
-        <f>(1000/O107*$A$8*$A$3)/128</f>
+      <c r="P107" s="8">
+        <f t="shared" si="3"/>
         <v>10.65340909090909</v>
       </c>
       <c r="T107">
         <v>96</v>
       </c>
       <c r="U107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1125</v>
       </c>
     </row>
-    <row r="108" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O108">
         <v>600</v>
       </c>
-      <c r="P108" s="14">
-        <f>(1000/O108*$A$8*$A$3)/128</f>
+      <c r="P108" s="8">
+        <f t="shared" ref="P108:P139" si="5">(1000/O108*$A$8*$A$3)/128</f>
         <v>9.7656250000000018</v>
       </c>
       <c r="T108">
         <v>97</v>
       </c>
       <c r="U108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1136.71875</v>
       </c>
     </row>
-    <row r="109" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O109">
         <v>650</v>
       </c>
-      <c r="P109" s="14">
-        <f>(1000/O109*$A$8*$A$3)/128</f>
+      <c r="P109" s="8">
+        <f t="shared" si="5"/>
         <v>9.0144230769230784</v>
       </c>
       <c r="T109">
         <v>98</v>
       </c>
       <c r="U109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1148.4375</v>
       </c>
     </row>
-    <row r="110" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O110">
         <v>700</v>
       </c>
-      <c r="P110" s="14">
-        <f>(1000/O110*$A$8*$A$3)/128</f>
+      <c r="P110" s="8">
+        <f t="shared" si="5"/>
         <v>8.3705357142857153</v>
       </c>
       <c r="T110">
         <v>99</v>
       </c>
       <c r="U110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1160.15625</v>
       </c>
     </row>
-    <row r="111" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O111">
         <v>750</v>
       </c>
-      <c r="P111" s="14">
-        <f>(1000/O111*$A$8*$A$3)/128</f>
+      <c r="P111" s="8">
+        <f t="shared" si="5"/>
         <v>7.8124999999999991</v>
       </c>
       <c r="T111">
         <v>100</v>
       </c>
       <c r="U111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1171.875</v>
       </c>
     </row>
-    <row r="112" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O112">
         <v>800</v>
       </c>
-      <c r="P112" s="14">
-        <f>(1000/O112*$A$8*$A$3)/128</f>
+      <c r="P112" s="8">
+        <f t="shared" si="5"/>
         <v>7.32421875</v>
       </c>
       <c r="T112">
         <v>101</v>
       </c>
       <c r="U112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1183.59375</v>
       </c>
     </row>
-    <row r="113" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O113">
         <v>850</v>
       </c>
-      <c r="P113" s="14">
-        <f>(1000/O113*$A$8*$A$3)/128</f>
+      <c r="P113" s="8">
+        <f t="shared" si="5"/>
         <v>6.8933823529411766</v>
       </c>
       <c r="T113">
         <v>102</v>
       </c>
       <c r="U113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1195.3125</v>
       </c>
     </row>
-    <row r="114" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O114">
         <v>900</v>
       </c>
-      <c r="P114" s="14">
-        <f>(1000/O114*$A$8*$A$3)/128</f>
+      <c r="P114" s="8">
+        <f t="shared" si="5"/>
         <v>6.510416666666667</v>
       </c>
       <c r="T114">
         <v>103</v>
       </c>
       <c r="U114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1207.03125</v>
       </c>
     </row>
-    <row r="115" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O115">
         <v>950</v>
       </c>
-      <c r="P115" s="14">
-        <f>(1000/O115*$A$8*$A$3)/128</f>
+      <c r="P115" s="8">
+        <f t="shared" si="5"/>
         <v>6.1677631578947363</v>
       </c>
       <c r="T115">
         <v>104</v>
       </c>
       <c r="U115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1218.75</v>
       </c>
     </row>
-    <row r="116" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O116">
         <v>1000</v>
       </c>
-      <c r="P116" s="14">
-        <f>(1000/O116*$A$8*$A$3)/128</f>
+      <c r="P116" s="8">
+        <f t="shared" si="5"/>
         <v>5.859375</v>
       </c>
       <c r="T116">
         <v>105</v>
       </c>
       <c r="U116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1230.46875</v>
       </c>
     </row>
-    <row r="117" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O117">
         <v>1050</v>
       </c>
-      <c r="P117" s="14">
-        <f>(1000/O117*$A$8*$A$3)/128</f>
+      <c r="P117" s="8">
+        <f t="shared" si="5"/>
         <v>5.5803571428571423</v>
       </c>
       <c r="T117">
         <v>106</v>
       </c>
       <c r="U117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1242.1875</v>
       </c>
     </row>
-    <row r="118" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O118">
         <v>1100</v>
       </c>
-      <c r="P118" s="14">
-        <f>(1000/O118*$A$8*$A$3)/128</f>
+      <c r="P118" s="8">
+        <f t="shared" si="5"/>
         <v>5.326704545454545</v>
       </c>
       <c r="T118">
         <v>107</v>
       </c>
       <c r="U118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1253.90625</v>
       </c>
     </row>
-    <row r="119" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O119">
         <v>1150</v>
       </c>
-      <c r="P119" s="14">
-        <f>(1000/O119*$A$8*$A$3)/128</f>
+      <c r="P119" s="8">
+        <f t="shared" si="5"/>
         <v>5.0951086956521738</v>
       </c>
       <c r="T119">
         <v>108</v>
       </c>
       <c r="U119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1265.625</v>
       </c>
     </row>
-    <row r="120" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O120">
         <v>1200</v>
       </c>
-      <c r="P120" s="14">
-        <f>(1000/O120*$A$8*$A$3)/128</f>
+      <c r="P120" s="8">
+        <f t="shared" si="5"/>
         <v>4.8828125000000009</v>
       </c>
       <c r="T120">
         <v>109</v>
       </c>
       <c r="U120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1277.34375</v>
       </c>
     </row>
-    <row r="121" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O121">
         <v>1250</v>
       </c>
-      <c r="P121" s="14">
-        <f>(1000/O121*$A$8*$A$3)/128</f>
+      <c r="P121" s="8">
+        <f t="shared" si="5"/>
         <v>4.6875</v>
       </c>
       <c r="T121">
         <v>110</v>
       </c>
       <c r="U121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1289.0625</v>
       </c>
     </row>
-    <row r="122" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O122">
         <v>1300</v>
       </c>
-      <c r="P122" s="14">
-        <f>(1000/O122*$A$8*$A$3)/128</f>
+      <c r="P122" s="8">
+        <f t="shared" si="5"/>
         <v>4.5072115384615392</v>
       </c>
       <c r="T122">
         <v>111</v>
       </c>
       <c r="U122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1300.78125</v>
       </c>
     </row>
-    <row r="123" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O123">
         <v>1350</v>
       </c>
-      <c r="P123" s="14">
-        <f>(1000/O123*$A$8*$A$3)/128</f>
+      <c r="P123" s="8">
+        <f t="shared" si="5"/>
         <v>4.3402777777777777</v>
       </c>
       <c r="T123">
         <v>112</v>
       </c>
       <c r="U123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1312.5</v>
       </c>
     </row>
-    <row r="124" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O124">
         <v>1400</v>
       </c>
-      <c r="P124" s="14">
-        <f>(1000/O124*$A$8*$A$3)/128</f>
+      <c r="P124" s="8">
+        <f t="shared" si="5"/>
         <v>4.1852678571428577</v>
       </c>
       <c r="T124">
         <v>113</v>
       </c>
       <c r="U124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1324.21875</v>
       </c>
     </row>
-    <row r="125" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O125">
         <v>1450</v>
       </c>
-      <c r="P125" s="14">
-        <f>(1000/O125*$A$8*$A$3)/128</f>
+      <c r="P125" s="8">
+        <f t="shared" si="5"/>
         <v>4.0409482758620694</v>
       </c>
       <c r="T125">
         <v>114</v>
       </c>
       <c r="U125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1335.9375</v>
       </c>
     </row>
-    <row r="126" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O126">
         <v>1500</v>
       </c>
-      <c r="P126" s="14">
-        <f>(1000/O126*$A$8*$A$3)/128</f>
+      <c r="P126" s="8">
+        <f t="shared" si="5"/>
         <v>3.9062499999999996</v>
       </c>
       <c r="T126">
         <v>115</v>
       </c>
       <c r="U126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1347.65625</v>
       </c>
     </row>
-    <row r="127" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O127">
         <v>1550</v>
       </c>
-      <c r="P127" s="14">
-        <f>(1000/O127*$A$8*$A$3)/128</f>
+      <c r="P127" s="8">
+        <f t="shared" si="5"/>
         <v>3.780241935483871</v>
       </c>
       <c r="T127">
         <v>116</v>
       </c>
       <c r="U127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1359.375</v>
       </c>
     </row>
-    <row r="128" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O128">
         <v>1600</v>
       </c>
-      <c r="P128" s="14">
-        <f>(1000/O128*$A$8*$A$3)/128</f>
+      <c r="P128" s="8">
+        <f t="shared" si="5"/>
         <v>3.662109375</v>
       </c>
       <c r="T128">
         <v>117</v>
       </c>
       <c r="U128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1371.09375</v>
       </c>
     </row>
-    <row r="129" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O129">
         <v>1650</v>
       </c>
-      <c r="P129" s="14">
-        <f>(1000/O129*$A$8*$A$3)/128</f>
+      <c r="P129" s="8">
+        <f t="shared" si="5"/>
         <v>3.5511363636363638</v>
       </c>
       <c r="T129">
         <v>118</v>
       </c>
       <c r="U129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1382.8125</v>
       </c>
     </row>
-    <row r="130" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O130">
         <v>1700</v>
       </c>
-      <c r="P130" s="14">
-        <f>(1000/O130*$A$8*$A$3)/128</f>
+      <c r="P130" s="8">
+        <f t="shared" si="5"/>
         <v>3.4466911764705883</v>
       </c>
       <c r="T130">
         <v>119</v>
       </c>
       <c r="U130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1394.53125</v>
       </c>
     </row>
-    <row r="131" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O131">
         <v>1750</v>
       </c>
-      <c r="P131" s="14">
-        <f>(1000/O131*$A$8*$A$3)/128</f>
+      <c r="P131" s="8">
+        <f t="shared" si="5"/>
         <v>3.3482142857142856</v>
       </c>
       <c r="T131">
         <v>120</v>
       </c>
       <c r="U131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1406.25</v>
       </c>
     </row>
-    <row r="132" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O132">
         <v>1800</v>
       </c>
-      <c r="P132" s="14">
-        <f>(1000/O132*$A$8*$A$3)/128</f>
+      <c r="P132" s="8">
+        <f t="shared" si="5"/>
         <v>3.2552083333333335</v>
       </c>
       <c r="T132">
         <v>121</v>
       </c>
       <c r="U132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1417.96875</v>
       </c>
     </row>
-    <row r="133" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O133">
         <v>1850</v>
       </c>
-      <c r="P133" s="14">
-        <f>(1000/O133*$A$8*$A$3)/128</f>
+      <c r="P133" s="8">
+        <f t="shared" si="5"/>
         <v>3.1672297297297298</v>
       </c>
       <c r="T133">
         <v>122</v>
       </c>
       <c r="U133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1429.6875</v>
       </c>
     </row>
-    <row r="134" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O134">
         <v>1900</v>
       </c>
-      <c r="P134" s="14">
-        <f>(1000/O134*$A$8*$A$3)/128</f>
+      <c r="P134" s="8">
+        <f t="shared" si="5"/>
         <v>3.0838815789473681</v>
       </c>
       <c r="T134">
         <v>123</v>
       </c>
       <c r="U134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1441.40625</v>
       </c>
     </row>
-    <row r="135" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O135">
         <v>1950</v>
       </c>
-      <c r="P135" s="14">
-        <f>(1000/O135*$A$8*$A$3)/128</f>
+      <c r="P135" s="8">
+        <f t="shared" si="5"/>
         <v>3.0048076923076921</v>
       </c>
       <c r="T135">
         <v>124</v>
       </c>
       <c r="U135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1453.125</v>
       </c>
     </row>
-    <row r="136" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="15:21" x14ac:dyDescent="0.25">
       <c r="O136">
         <v>2000</v>
       </c>
-      <c r="P136" s="14">
-        <f>(1000/O136*$A$8*$A$3)/128</f>
+      <c r="P136" s="8">
+        <f t="shared" si="5"/>
         <v>2.9296875</v>
       </c>
       <c r="T136">
         <v>125</v>
       </c>
       <c r="U136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1464.84375</v>
       </c>
     </row>
-    <row r="137" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T137">
         <v>126</v>
       </c>
       <c r="U137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1476.5625</v>
       </c>
     </row>
-    <row r="138" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T138">
         <v>127</v>
       </c>
       <c r="U138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1488.28125</v>
       </c>
     </row>
-    <row r="139" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T139">
         <v>128</v>
       </c>
       <c r="U139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="140" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T140">
         <v>129</v>
       </c>
       <c r="U140">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1511.71875</v>
       </c>
     </row>
-    <row r="141" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T141">
         <v>130</v>
       </c>
       <c r="U141">
-        <f t="shared" ref="U141:U204" si="2">(1000/$A$34*T141*$A$3)/128</f>
+        <f t="shared" ref="U141:U204" si="6">(1000/$A$34*T141*$A$3)/128</f>
         <v>1523.4375</v>
       </c>
     </row>
-    <row r="142" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T142">
         <v>131</v>
       </c>
       <c r="U142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1535.15625</v>
       </c>
     </row>
-    <row r="143" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T143">
         <v>132</v>
       </c>
       <c r="U143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1546.875</v>
       </c>
     </row>
-    <row r="144" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="15:21" x14ac:dyDescent="0.25">
       <c r="T144">
         <v>133</v>
       </c>
       <c r="U144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1558.59375</v>
       </c>
     </row>
-    <row r="145" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T145">
         <v>134</v>
       </c>
       <c r="U145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1570.3125</v>
       </c>
     </row>
-    <row r="146" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T146">
         <v>135</v>
       </c>
       <c r="U146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1582.03125</v>
       </c>
     </row>
-    <row r="147" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T147">
         <v>136</v>
       </c>
       <c r="U147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1593.75</v>
       </c>
     </row>
-    <row r="148" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T148">
         <v>137</v>
       </c>
       <c r="U148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1605.46875</v>
       </c>
     </row>
-    <row r="149" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T149">
         <v>138</v>
       </c>
       <c r="U149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1617.1875</v>
       </c>
     </row>
-    <row r="150" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T150">
         <v>139</v>
       </c>
       <c r="U150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1628.90625</v>
       </c>
     </row>
-    <row r="151" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T151">
         <v>140</v>
       </c>
       <c r="U151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1640.625</v>
       </c>
     </row>
-    <row r="152" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T152">
         <v>141</v>
       </c>
       <c r="U152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1652.34375</v>
       </c>
     </row>
-    <row r="153" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T153">
         <v>142</v>
       </c>
       <c r="U153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1664.0625</v>
       </c>
     </row>
-    <row r="154" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T154">
         <v>143</v>
       </c>
       <c r="U154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1675.78125</v>
       </c>
     </row>
-    <row r="155" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T155">
         <v>144</v>
       </c>
       <c r="U155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1687.5</v>
       </c>
     </row>
-    <row r="156" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T156">
         <v>145</v>
       </c>
       <c r="U156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1699.21875</v>
       </c>
     </row>
-    <row r="157" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T157">
         <v>146</v>
       </c>
       <c r="U157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1710.9375</v>
       </c>
     </row>
-    <row r="158" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T158">
         <v>147</v>
       </c>
       <c r="U158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1722.65625</v>
       </c>
     </row>
-    <row r="159" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T159">
         <v>148</v>
       </c>
       <c r="U159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1734.375</v>
       </c>
     </row>
-    <row r="160" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T160">
         <v>149</v>
       </c>
       <c r="U160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1746.09375</v>
       </c>
     </row>
-    <row r="161" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T161">
         <v>150</v>
       </c>
       <c r="U161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1757.8125</v>
       </c>
     </row>
-    <row r="162" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T162">
         <v>151</v>
       </c>
       <c r="U162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1769.53125</v>
       </c>
     </row>
-    <row r="163" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T163">
         <v>152</v>
       </c>
       <c r="U163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1781.25</v>
       </c>
     </row>
-    <row r="164" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T164">
         <v>153</v>
       </c>
       <c r="U164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1792.96875</v>
       </c>
     </row>
-    <row r="165" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T165">
         <v>154</v>
       </c>
       <c r="U165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1804.6875</v>
       </c>
     </row>
-    <row r="166" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T166">
         <v>155</v>
       </c>
       <c r="U166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1816.40625</v>
       </c>
     </row>
-    <row r="167" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T167">
         <v>156</v>
       </c>
       <c r="U167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1828.125</v>
       </c>
     </row>
-    <row r="168" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T168">
         <v>157</v>
       </c>
       <c r="U168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1839.84375</v>
       </c>
     </row>
-    <row r="169" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T169">
         <v>158</v>
       </c>
       <c r="U169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1851.5625</v>
       </c>
     </row>
-    <row r="170" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T170">
         <v>159</v>
       </c>
       <c r="U170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1863.28125</v>
       </c>
     </row>
-    <row r="171" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T171">
         <v>160</v>
       </c>
       <c r="U171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
     </row>
-    <row r="172" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T172">
         <v>161</v>
       </c>
       <c r="U172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1886.71875</v>
       </c>
     </row>
-    <row r="173" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T173">
         <v>162</v>
       </c>
       <c r="U173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1898.4375</v>
       </c>
     </row>
-    <row r="174" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T174">
         <v>163</v>
       </c>
       <c r="U174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1910.15625</v>
       </c>
     </row>
-    <row r="175" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T175">
         <v>164</v>
       </c>
       <c r="U175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1921.875</v>
       </c>
     </row>
-    <row r="176" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T176">
         <v>165</v>
       </c>
       <c r="U176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1933.59375</v>
       </c>
     </row>
-    <row r="177" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T177">
         <v>166</v>
       </c>
       <c r="U177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1945.3125</v>
       </c>
     </row>
-    <row r="178" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T178">
         <v>167</v>
       </c>
       <c r="U178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1957.03125</v>
       </c>
     </row>
-    <row r="179" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T179">
         <v>168</v>
       </c>
       <c r="U179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1968.75</v>
       </c>
     </row>
-    <row r="180" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T180">
         <v>169</v>
       </c>
       <c r="U180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1980.46875</v>
       </c>
     </row>
-    <row r="181" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T181">
         <v>170</v>
       </c>
       <c r="U181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1992.1875</v>
       </c>
     </row>
-    <row r="182" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T182">
         <v>171</v>
       </c>
       <c r="U182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2003.90625</v>
       </c>
     </row>
-    <row r="183" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T183">
         <v>172</v>
       </c>
       <c r="U183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2015.625</v>
       </c>
     </row>
-    <row r="184" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T184">
         <v>173</v>
       </c>
       <c r="U184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2027.34375</v>
       </c>
     </row>
-    <row r="185" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T185">
         <v>174</v>
       </c>
       <c r="U185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2039.0625</v>
       </c>
     </row>
-    <row r="186" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T186">
         <v>175</v>
       </c>
       <c r="U186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2050.78125</v>
       </c>
     </row>
-    <row r="187" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T187">
         <v>176</v>
       </c>
       <c r="U187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2062.5</v>
       </c>
     </row>
-    <row r="188" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T188">
         <v>177</v>
       </c>
       <c r="U188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2074.21875</v>
       </c>
     </row>
-    <row r="189" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T189">
         <v>178</v>
       </c>
       <c r="U189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2085.9375</v>
       </c>
     </row>
-    <row r="190" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T190">
         <v>179</v>
       </c>
       <c r="U190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2097.65625</v>
       </c>
     </row>
-    <row r="191" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T191">
         <v>180</v>
       </c>
       <c r="U191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2109.375</v>
       </c>
     </row>
-    <row r="192" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T192">
         <v>181</v>
       </c>
       <c r="U192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2121.09375</v>
       </c>
     </row>
-    <row r="193" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T193">
         <v>182</v>
       </c>
       <c r="U193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2132.8125</v>
       </c>
     </row>
-    <row r="194" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T194">
         <v>183</v>
       </c>
       <c r="U194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2144.53125</v>
       </c>
     </row>
-    <row r="195" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T195">
         <v>184</v>
       </c>
       <c r="U195">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2156.25</v>
       </c>
     </row>
-    <row r="196" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T196">
         <v>185</v>
       </c>
       <c r="U196">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2167.96875</v>
       </c>
     </row>
-    <row r="197" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T197">
         <v>186</v>
       </c>
       <c r="U197">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2179.6875</v>
       </c>
     </row>
-    <row r="198" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T198">
         <v>187</v>
       </c>
       <c r="U198">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2191.40625</v>
       </c>
     </row>
-    <row r="199" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T199">
         <v>188</v>
       </c>
       <c r="U199">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2203.125</v>
       </c>
     </row>
-    <row r="200" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T200">
         <v>189</v>
       </c>
       <c r="U200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2214.84375</v>
       </c>
     </row>
-    <row r="201" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T201">
         <v>190</v>
       </c>
       <c r="U201">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2226.5625</v>
       </c>
     </row>
-    <row r="202" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T202">
         <v>191</v>
       </c>
       <c r="U202">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2238.28125</v>
       </c>
     </row>
-    <row r="203" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T203">
         <v>192</v>
       </c>
       <c r="U203">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2250</v>
       </c>
     </row>
-    <row r="204" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T204">
         <v>193</v>
       </c>
       <c r="U204">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2261.71875</v>
       </c>
     </row>
-    <row r="205" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T205">
         <v>194</v>
       </c>
       <c r="U205">
-        <f t="shared" ref="U205:U268" si="3">(1000/$A$34*T205*$A$3)/128</f>
+        <f t="shared" ref="U205:U268" si="7">(1000/$A$34*T205*$A$3)/128</f>
         <v>2273.4375</v>
       </c>
     </row>
-    <row r="206" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T206">
         <v>195</v>
       </c>
       <c r="U206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2285.15625</v>
       </c>
     </row>
-    <row r="207" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T207">
         <v>196</v>
       </c>
       <c r="U207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2296.875</v>
       </c>
     </row>
-    <row r="208" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T208">
         <v>197</v>
       </c>
       <c r="U208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2308.59375</v>
       </c>
     </row>
-    <row r="209" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T209">
         <v>198</v>
       </c>
       <c r="U209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2320.3125</v>
       </c>
     </row>
-    <row r="210" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T210">
         <v>199</v>
       </c>
       <c r="U210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2332.03125</v>
       </c>
     </row>
-    <row r="211" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T211">
         <v>200</v>
       </c>
       <c r="U211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2343.75</v>
       </c>
     </row>
-    <row r="212" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T212">
         <v>201</v>
       </c>
       <c r="U212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2355.46875</v>
       </c>
     </row>
-    <row r="213" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T213">
         <v>202</v>
       </c>
       <c r="U213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2367.1875</v>
       </c>
     </row>
-    <row r="214" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T214">
         <v>203</v>
       </c>
       <c r="U214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2378.90625</v>
       </c>
     </row>
-    <row r="215" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T215">
         <v>204</v>
       </c>
       <c r="U215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2390.625</v>
       </c>
     </row>
-    <row r="216" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T216">
         <v>205</v>
       </c>
       <c r="U216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2402.34375</v>
       </c>
     </row>
-    <row r="217" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T217">
         <v>206</v>
       </c>
       <c r="U217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2414.0625</v>
       </c>
     </row>
-    <row r="218" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T218">
         <v>207</v>
       </c>
       <c r="U218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2425.78125</v>
       </c>
     </row>
-    <row r="219" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T219">
         <v>208</v>
       </c>
       <c r="U219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2437.5</v>
       </c>
     </row>
-    <row r="220" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T220">
         <v>209</v>
       </c>
       <c r="U220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2449.21875</v>
       </c>
     </row>
-    <row r="221" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T221">
         <v>210</v>
       </c>
       <c r="U221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2460.9375</v>
       </c>
     </row>
-    <row r="222" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T222">
         <v>211</v>
       </c>
       <c r="U222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2472.65625</v>
       </c>
     </row>
-    <row r="223" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T223">
         <v>212</v>
       </c>
       <c r="U223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2484.375</v>
       </c>
     </row>
-    <row r="224" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T224">
         <v>213</v>
       </c>
       <c r="U224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2496.09375</v>
       </c>
     </row>
-    <row r="225" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T225">
         <v>214</v>
       </c>
       <c r="U225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2507.8125</v>
       </c>
     </row>
-    <row r="226" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T226">
         <v>215</v>
       </c>
       <c r="U226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2519.53125</v>
       </c>
     </row>
-    <row r="227" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T227">
         <v>216</v>
       </c>
       <c r="U227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2531.25</v>
       </c>
     </row>
-    <row r="228" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T228">
         <v>217</v>
       </c>
       <c r="U228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2542.96875</v>
       </c>
     </row>
-    <row r="229" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T229">
         <v>218</v>
       </c>
       <c r="U229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2554.6875</v>
       </c>
     </row>
-    <row r="230" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T230">
         <v>219</v>
       </c>
       <c r="U230">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2566.40625</v>
       </c>
     </row>
-    <row r="231" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T231">
         <v>220</v>
       </c>
       <c r="U231">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2578.125</v>
       </c>
     </row>
-    <row r="232" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T232">
         <v>221</v>
       </c>
       <c r="U232">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2589.84375</v>
       </c>
     </row>
-    <row r="233" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T233">
         <v>222</v>
       </c>
       <c r="U233">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2601.5625</v>
       </c>
     </row>
-    <row r="234" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T234">
         <v>223</v>
       </c>
       <c r="U234">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2613.28125</v>
       </c>
     </row>
-    <row r="235" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T235">
         <v>224</v>
       </c>
       <c r="U235">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2625</v>
       </c>
     </row>
-    <row r="236" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T236">
         <v>225</v>
       </c>
       <c r="U236">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2636.71875</v>
       </c>
     </row>
-    <row r="237" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T237">
         <v>226</v>
       </c>
       <c r="U237">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2648.4375</v>
       </c>
     </row>
-    <row r="238" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T238">
         <v>227</v>
       </c>
       <c r="U238">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2660.15625</v>
       </c>
     </row>
-    <row r="239" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T239">
         <v>228</v>
       </c>
       <c r="U239">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2671.875</v>
       </c>
     </row>
-    <row r="240" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T240">
         <v>229</v>
       </c>
       <c r="U240">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2683.59375</v>
       </c>
     </row>
-    <row r="241" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T241">
         <v>230</v>
       </c>
       <c r="U241">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2695.3125</v>
       </c>
     </row>
-    <row r="242" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T242">
         <v>231</v>
       </c>
       <c r="U242">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2707.03125</v>
       </c>
     </row>
-    <row r="243" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T243">
         <v>232</v>
       </c>
       <c r="U243">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2718.75</v>
       </c>
     </row>
-    <row r="244" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T244">
         <v>233</v>
       </c>
       <c r="U244">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2730.46875</v>
       </c>
     </row>
-    <row r="245" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T245">
         <v>234</v>
       </c>
       <c r="U245">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2742.1875</v>
       </c>
     </row>
-    <row r="246" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T246">
         <v>235</v>
       </c>
       <c r="U246">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2753.90625</v>
       </c>
     </row>
-    <row r="247" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T247">
         <v>236</v>
       </c>
       <c r="U247">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2765.625</v>
       </c>
     </row>
-    <row r="248" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T248">
         <v>237</v>
       </c>
       <c r="U248">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2777.34375</v>
       </c>
     </row>
-    <row r="249" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T249">
         <v>238</v>
       </c>
       <c r="U249">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2789.0625</v>
       </c>
     </row>
-    <row r="250" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T250">
         <v>239</v>
       </c>
       <c r="U250">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2800.78125</v>
       </c>
     </row>
-    <row r="251" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T251">
         <v>240</v>
       </c>
       <c r="U251">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2812.5</v>
       </c>
     </row>
-    <row r="252" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T252">
         <v>241</v>
       </c>
       <c r="U252">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2824.21875</v>
       </c>
     </row>
-    <row r="253" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T253">
         <v>242</v>
       </c>
       <c r="U253">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2835.9375</v>
       </c>
     </row>
-    <row r="254" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T254">
         <v>243</v>
       </c>
       <c r="U254">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2847.65625</v>
       </c>
     </row>
-    <row r="255" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T255">
         <v>244</v>
       </c>
       <c r="U255">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2859.375</v>
       </c>
     </row>
-    <row r="256" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T256">
         <v>245</v>
       </c>
       <c r="U256">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2871.09375</v>
       </c>
     </row>
-    <row r="257" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T257">
         <v>246</v>
       </c>
       <c r="U257">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2882.8125</v>
       </c>
     </row>
-    <row r="258" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T258">
         <v>247</v>
       </c>
       <c r="U258">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2894.53125</v>
       </c>
     </row>
-    <row r="259" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T259">
         <v>248</v>
       </c>
       <c r="U259">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2906.25</v>
       </c>
     </row>
-    <row r="260" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T260">
         <v>249</v>
       </c>
       <c r="U260">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2917.96875</v>
       </c>
     </row>
-    <row r="261" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T261">
         <v>250</v>
       </c>
       <c r="U261">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2929.6875</v>
       </c>
     </row>
-    <row r="262" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T262">
         <v>251</v>
       </c>
       <c r="U262">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2941.40625</v>
       </c>
     </row>
-    <row r="263" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T263">
         <v>252</v>
       </c>
       <c r="U263">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2953.125</v>
       </c>
     </row>
-    <row r="264" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T264">
         <v>253</v>
       </c>
       <c r="U264">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2964.84375</v>
       </c>
     </row>
-    <row r="265" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T265">
         <v>254</v>
       </c>
       <c r="U265">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2976.5625</v>
       </c>
     </row>
-    <row r="266" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T266">
         <v>255</v>
       </c>
       <c r="U266">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2988.28125</v>
       </c>
     </row>
-    <row r="267" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T267">
         <v>256</v>
       </c>
       <c r="U267">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="268" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T268">
         <v>257</v>
       </c>
       <c r="U268">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3011.71875</v>
       </c>
     </row>
-    <row r="269" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T269">
         <v>258</v>
       </c>
       <c r="U269">
-        <f t="shared" ref="U269:U311" si="4">(1000/$A$34*T269*$A$3)/128</f>
+        <f t="shared" ref="U269:U311" si="8">(1000/$A$34*T269*$A$3)/128</f>
         <v>3023.4375</v>
       </c>
     </row>
-    <row r="270" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T270">
         <v>259</v>
       </c>
       <c r="U270">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3035.15625</v>
       </c>
     </row>
-    <row r="271" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T271">
         <v>260</v>
       </c>
       <c r="U271">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3046.875</v>
       </c>
     </row>
-    <row r="272" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T272">
         <v>261</v>
       </c>
       <c r="U272">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3058.59375</v>
       </c>
     </row>
-    <row r="273" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T273">
         <v>262</v>
       </c>
       <c r="U273">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3070.3125</v>
       </c>
     </row>
-    <row r="274" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T274">
         <v>263</v>
       </c>
       <c r="U274">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3082.03125</v>
       </c>
     </row>
-    <row r="275" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T275">
         <v>264</v>
       </c>
       <c r="U275">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3093.75</v>
       </c>
     </row>
-    <row r="276" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T276">
         <v>265</v>
       </c>
       <c r="U276">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3105.46875</v>
       </c>
     </row>
-    <row r="277" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T277">
         <v>266</v>
       </c>
       <c r="U277">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3117.1875</v>
       </c>
     </row>
-    <row r="278" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T278">
         <v>267</v>
       </c>
       <c r="U278">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3128.90625</v>
       </c>
     </row>
-    <row r="279" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T279">
         <v>268</v>
       </c>
       <c r="U279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3140.625</v>
       </c>
     </row>
-    <row r="280" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T280">
         <v>269</v>
       </c>
       <c r="U280">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3152.34375</v>
       </c>
     </row>
-    <row r="281" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T281">
         <v>270</v>
       </c>
       <c r="U281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3164.0625</v>
       </c>
     </row>
-    <row r="282" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T282">
         <v>271</v>
       </c>
       <c r="U282">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3175.78125</v>
       </c>
     </row>
-    <row r="283" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T283">
         <v>272</v>
       </c>
       <c r="U283">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3187.5</v>
       </c>
     </row>
-    <row r="284" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T284">
         <v>273</v>
       </c>
       <c r="U284">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3199.21875</v>
       </c>
     </row>
-    <row r="285" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T285">
         <v>274</v>
       </c>
       <c r="U285">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3210.9375</v>
       </c>
     </row>
-    <row r="286" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T286">
         <v>275</v>
       </c>
       <c r="U286">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3222.65625</v>
       </c>
     </row>
-    <row r="287" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T287">
         <v>276</v>
       </c>
       <c r="U287">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3234.375</v>
       </c>
     </row>
-    <row r="288" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T288">
         <v>277</v>
       </c>
       <c r="U288">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3246.09375</v>
       </c>
     </row>
-    <row r="289" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T289">
         <v>278</v>
       </c>
       <c r="U289">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3257.8125</v>
       </c>
     </row>
-    <row r="290" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T290">
         <v>279</v>
       </c>
       <c r="U290">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3269.53125</v>
       </c>
     </row>
-    <row r="291" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T291">
         <v>280</v>
       </c>
       <c r="U291">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3281.25</v>
       </c>
     </row>
-    <row r="292" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T292">
         <v>281</v>
       </c>
       <c r="U292">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3292.96875</v>
       </c>
     </row>
-    <row r="293" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T293">
         <v>282</v>
       </c>
       <c r="U293">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3304.6875</v>
       </c>
     </row>
-    <row r="294" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T294">
         <v>283</v>
       </c>
       <c r="U294">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3316.40625</v>
       </c>
     </row>
-    <row r="295" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T295">
         <v>284</v>
       </c>
       <c r="U295">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3328.125</v>
       </c>
     </row>
-    <row r="296" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T296">
         <v>285</v>
       </c>
       <c r="U296">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3339.84375</v>
       </c>
     </row>
-    <row r="297" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T297">
         <v>286</v>
       </c>
       <c r="U297">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3351.5625</v>
       </c>
     </row>
-    <row r="298" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T298">
         <v>287</v>
       </c>
       <c r="U298">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3363.28125</v>
       </c>
     </row>
-    <row r="299" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T299">
         <v>288</v>
       </c>
       <c r="U299">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3375</v>
       </c>
     </row>
-    <row r="300" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T300">
         <v>289</v>
       </c>
       <c r="U300">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3386.71875</v>
       </c>
     </row>
-    <row r="301" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T301">
         <v>290</v>
       </c>
       <c r="U301">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3398.4375</v>
       </c>
     </row>
-    <row r="302" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T302">
         <v>291</v>
       </c>
       <c r="U302">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3410.15625</v>
       </c>
     </row>
-    <row r="303" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T303">
         <v>292</v>
       </c>
       <c r="U303">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3421.875</v>
       </c>
     </row>
-    <row r="304" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T304">
         <v>293</v>
       </c>
       <c r="U304">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3433.59375</v>
       </c>
     </row>
-    <row r="305" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T305">
         <v>294</v>
       </c>
       <c r="U305">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3445.3125</v>
       </c>
     </row>
-    <row r="306" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T306">
         <v>295</v>
       </c>
       <c r="U306">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3457.03125</v>
       </c>
     </row>
-    <row r="307" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T307">
         <v>296</v>
       </c>
       <c r="U307">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3468.75</v>
       </c>
     </row>
-    <row r="308" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T308">
         <v>297</v>
       </c>
       <c r="U308">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3480.46875</v>
       </c>
     </row>
-    <row r="309" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T309">
         <v>298</v>
       </c>
       <c r="U309">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3492.1875</v>
       </c>
     </row>
-    <row r="310" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="310" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T310">
         <v>299</v>
       </c>
       <c r="U310">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3503.90625</v>
       </c>
     </row>
-    <row r="311" spans="20:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T311">
         <v>300</v>
       </c>
       <c r="U311">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3515.625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
